--- a/data/trans_orig/Q17H_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q17H_R-Clase-trans_orig.xlsx
@@ -704,33 +704,33 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.29484956396775</v>
+        <v>6.403914211566021</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.408208337657423</v>
+        <v>7.519145210373634</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.784301519125579</v>
+        <v>1.783381798244366</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>4.582164407102786</v>
+        <v>4.589508924236471</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.213875147702087</v>
+        <v>4.088449959432217</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.634909622284913</v>
+        <v>1.606268613856005</v>
       </c>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
-        <v>5.90118978271463</v>
+        <v>5.940566954059431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6.36354918411222</v>
+        <v>6.401773324644842</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.780123918132933</v>
+        <v>1.781011768051777</v>
       </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
@@ -742,33 +742,33 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.60686273619573</v>
+        <v>8.59908701248286</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.20087682599463</v>
+        <v>12.35910336279011</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.344636981001034</v>
+        <v>2.315809514482394</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>7.144854710411784</v>
+        <v>7.082829509009365</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.231836312024444</v>
+        <v>5.943897709001022</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.166094488645934</v>
+        <v>2.125359047419554</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>7.588002613856832</v>
+        <v>7.687536680227101</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9.155559513907788</v>
+        <v>9.360126667654376</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.151262294209678</v>
+        <v>2.143821077241889</v>
       </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
@@ -828,33 +828,33 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.639588357778721</v>
+        <v>7.733468962041314</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.371786398840271</v>
+        <v>5.363987655241783</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.722336043147553</v>
+        <v>1.732008544091374</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>4.710053960965406</v>
+        <v>4.656185451265425</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.856607466825858</v>
+        <v>3.896321673935888</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.835804804539102</v>
+        <v>1.844651016817938</v>
       </c>
       <c r="J8" s="5" t="inlineStr"/>
       <c r="K8" s="5" t="n">
-        <v>6.411768471986943</v>
+        <v>6.531577115822431</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.007344371016072</v>
+        <v>4.954170413605686</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.868141075771921</v>
+        <v>1.859399570394136</v>
       </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
@@ -866,33 +866,33 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.04619953162469</v>
+        <v>12.07954636257139</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.518464787629374</v>
+        <v>7.654747747135043</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.286265375802675</v>
+        <v>2.317340740515981</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>6.648649454499131</v>
+        <v>6.690520954618244</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.809640048632779</v>
+        <v>6.959891641949141</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.438499738643154</v>
+        <v>2.411132156274944</v>
       </c>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>8.997753696866083</v>
+        <v>8.865827507737336</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.839911954394288</v>
+        <v>6.681738286493312</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.26507466234803</v>
+        <v>2.282461119680947</v>
       </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
@@ -952,33 +952,33 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.929040329180426</v>
+        <v>7.841430856919714</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.410278883109484</v>
+        <v>7.578405307988258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.583374189091862</v>
+        <v>1.590339367099268</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
-        <v>3.490270701485692</v>
+        <v>3.471534482584575</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.488445357172967</v>
+        <v>3.553679718454546</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.378817863529551</v>
+        <v>1.40579444920005</v>
       </c>
       <c r="J11" s="5" t="inlineStr"/>
       <c r="K11" s="5" t="n">
-        <v>7.113176692869754</v>
+        <v>7.104818312467065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6.607293247437588</v>
+        <v>6.521799865397939</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.589854852809567</v>
+        <v>1.605890814597502</v>
       </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
@@ -990,33 +990,33 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.10647726569819</v>
+        <v>12.42236958247279</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.48194657365661</v>
+        <v>11.53457480463983</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.033511495982349</v>
+        <v>2.031954715424235</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>6.884232562489273</v>
+        <v>7.01115283399319</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.710663019024081</v>
+        <v>5.797062035811857</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.140945445157269</v>
+        <v>2.179823503039233</v>
       </c>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="n">
-        <v>10.61092340396496</v>
+        <v>10.65004884997788</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9.367751968429321</v>
+        <v>9.267761937068489</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1.985138867164467</v>
+        <v>2.006959321986049</v>
       </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
@@ -1076,33 +1076,33 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.163245328096862</v>
+        <v>7.092100176757465</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.605955579214855</v>
+        <v>6.581365965937992</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.67664051328274</v>
+        <v>1.670304410034871</v>
       </c>
       <c r="F14" s="5" t="inlineStr"/>
       <c r="G14" s="5" t="n">
-        <v>4.312015435158993</v>
+        <v>4.337128323084104</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.456209228958799</v>
+        <v>4.459670616653825</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.574368196538553</v>
+        <v>1.585550903122989</v>
       </c>
       <c r="J14" s="5" t="inlineStr"/>
       <c r="K14" s="5" t="n">
-        <v>6.251730016744898</v>
+        <v>6.253463530973175</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.936217157879575</v>
+        <v>5.939889624043541</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.675950610522796</v>
+        <v>1.678881637540868</v>
       </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
@@ -1114,33 +1114,33 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.627252433892412</v>
+        <v>8.568997062361289</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.283326402588827</v>
+        <v>8.233948129385297</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.989846120762887</v>
+        <v>1.969362243412619</v>
       </c>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="n">
-        <v>5.770678619266437</v>
+        <v>5.725461507411254</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.759083852669726</v>
+        <v>8.33425294144223</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.920596722029309</v>
+        <v>1.916067436851474</v>
       </c>
       <c r="J15" s="5" t="inlineStr"/>
       <c r="K15" s="5" t="n">
-        <v>7.380667227490869</v>
+        <v>7.341077951018199</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7.519878905044376</v>
+        <v>7.55513134950765</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.905595946458275</v>
+        <v>1.9120205047645</v>
       </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
@@ -1200,33 +1200,33 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>9.415078638500063</v>
+        <v>9.356211156473687</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.73587598077552</v>
+        <v>6.810258460860077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.619256268146641</v>
+        <v>1.641003234155677</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
-        <v>3.856748512962326</v>
+        <v>3.813747337394631</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.324782462826827</v>
+        <v>3.270757414427041</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.388339683706632</v>
+        <v>1.396978476581881</v>
       </c>
       <c r="J17" s="5" t="inlineStr"/>
       <c r="K17" s="5" t="n">
-        <v>6.273385281266727</v>
+        <v>6.197536851660455</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4.889663552253134</v>
+        <v>4.872841597988524</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.551836515060726</v>
+        <v>1.565427729017869</v>
       </c>
       <c r="N17" s="5" t="inlineStr"/>
     </row>
@@ -1238,33 +1238,33 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.12107850377134</v>
+        <v>14.24948251540314</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.81552820723153</v>
+        <v>9.913308228805906</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.056666962926485</v>
+        <v>2.075077794494522</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>5.266721966330496</v>
+        <v>5.310238885394284</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.587088280873896</v>
+        <v>4.457126990409543</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.724040532506476</v>
+        <v>1.723515448100994</v>
       </c>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>8.421720796124529</v>
+        <v>8.373844358132882</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.345400200823976</v>
+        <v>6.397119399761616</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.823805030495245</v>
+        <v>1.825080338288976</v>
       </c>
       <c r="N18" s="5" t="inlineStr"/>
     </row>
@@ -1324,33 +1324,33 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.081189725360344</v>
+        <v>8.094047915563884</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.213094302681948</v>
+        <v>7.076954921841407</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.803786591632448</v>
+        <v>1.76889988480924</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>4.702238010566071</v>
+        <v>4.621857156512831</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.506771153148243</v>
+        <v>3.491716300592434</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.522106802389832</v>
+        <v>1.541485937493572</v>
       </c>
       <c r="J20" s="5" t="inlineStr"/>
       <c r="K20" s="5" t="n">
-        <v>5.478107615653445</v>
+        <v>5.464078165176148</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4.353348422614494</v>
+        <v>4.347872055173405</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.641583539642826</v>
+        <v>1.624146809450635</v>
       </c>
       <c r="N20" s="5" t="inlineStr"/>
     </row>
@@ -1362,33 +1362,33 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.61419239149013</v>
+        <v>10.67548102496622</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.687971899110526</v>
+        <v>9.415113297653214</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.471906482829089</v>
+        <v>2.428506952728308</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>6.080874435231737</v>
+        <v>5.969619445167211</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>4.506130197152658</v>
+        <v>4.490460766273459</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1.821611676416937</v>
+        <v>1.825739440679602</v>
       </c>
       <c r="J21" s="5" t="inlineStr"/>
       <c r="K21" s="5" t="n">
-        <v>6.720022832998756</v>
+        <v>6.623274541358916</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5.254628811233637</v>
+        <v>5.293887013424406</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1.897161633304786</v>
+        <v>1.90449873217085</v>
       </c>
       <c r="N21" s="5" t="inlineStr"/>
     </row>
@@ -1448,33 +1448,33 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.206533769359387</v>
+        <v>8.24958303421797</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.423168710678558</v>
+        <v>7.419459860141173</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.794260830372104</v>
+        <v>1.809872969226238</v>
       </c>
       <c r="F23" s="5" t="inlineStr"/>
       <c r="G23" s="5" t="n">
-        <v>4.751049181433609</v>
+        <v>4.743987538227501</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.115108147997259</v>
+        <v>4.137842390897929</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.663107266614872</v>
+        <v>1.650127666836557</v>
       </c>
       <c r="J23" s="5" t="inlineStr"/>
       <c r="K23" s="5" t="n">
-        <v>6.56615637885064</v>
+        <v>6.570545679110461</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5.847118981962146</v>
+        <v>5.84550224274427</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1.746279476481127</v>
+        <v>1.749599944138439</v>
       </c>
       <c r="N23" s="5" t="inlineStr"/>
     </row>
@@ -1486,33 +1486,33 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.453958203752359</v>
+        <v>9.472536092545178</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.599563718284642</v>
+        <v>8.651372298164519</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.982291287553257</v>
+        <v>1.998338232326068</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="n">
-        <v>5.440336607750372</v>
+        <v>5.461338660735734</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.070415210227499</v>
+        <v>5.062442313528032</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.828249071324817</v>
+        <v>1.819805556936216</v>
       </c>
       <c r="J24" s="5" t="inlineStr"/>
       <c r="K24" s="5" t="n">
-        <v>7.253300881310534</v>
+        <v>7.237035932303153</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6.598329299049639</v>
+        <v>6.561753733765868</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1.871480765028564</v>
+        <v>1.875682059209657</v>
       </c>
       <c r="N24" s="5" t="inlineStr"/>
     </row>
